--- a/biology/Botanique/Wisteria_brachybotrys/Wisteria_brachybotrys.xlsx
+++ b/biology/Botanique/Wisteria_brachybotrys/Wisteria_brachybotrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wisteria brachybotrys est une espèce de plantes dicotylédones de la famille des Fabaceae (Légumineuses), sous-famille des Faboideae, originaire d'Extrême-Orient (Chine, Japon).
 Ce sont des plantes grimpantes dont les tiges sarmenteuses peuvent atteindre 20 mètres de long. L'espèce est cultivée comme plante ornementale pour leur floraison odorante.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, brachybotrys, est composé de deux racines grecques, βραχύς (brakhús), « court », et βότρυς (botrys), « grappe (de raisin) ».  brachybotrys, signifiant « grappe courte » fait probablement référence à l'inflorescence[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, brachybotrys, est composé de deux racines grecques, βραχύς (brakhús), « court », et βότρυς (botrys), « grappe (de raisin) ».  brachybotrys, signifiant « grappe courte » fait probablement référence à l'inflorescence.
 </t>
         </is>
       </c>
@@ -545,16 +559,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (4 mai 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (4 mai 2019) :
 Kraunhia brachybotrys (Siebold &amp; Zucc.) Greene
 Kraunhia floribunda var. brachybotrys (Siebold &amp; Zucc.) Makino
 Kraunhia sinensis var. brachybotrys (Siebold &amp; Zucc.) Makino
 Wisteria brachybotrys var. alba W.S.Miller
-Wisteria brachybotrys W. T. Mill.[3]
-Wisteria venusta Rehder &amp; E. H. Wilson[3]
-Liste des variétés
-Selon Tropicos                                           (4 mai 2019)[4] :
+Wisteria brachybotrys W. T. Mill.
+Wisteria venusta Rehder &amp; E. H. Wilson</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wisteria_brachybotrys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wisteria_brachybotrys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (4 mai 2019) :
 Wisteria brachybotrys var. alba W. Mill.
 </t>
         </is>
